--- a/biology/Zoologie/Cepheuptychia_glaucina/Cepheuptychia_glaucina.xlsx
+++ b/biology/Zoologie/Cepheuptychia_glaucina/Cepheuptychia_glaucina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cepheuptychia glaucina est une espèce de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae et du genre Cepheuptychia.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cepheuptychia glaucina a été décrit par Henry Walter Bates en 1865 sous le nom d' Euptychia glaucina[1].
-Noms vernaculaires
-Cepheuptychia glaucina se nomme Dirty-blue Satyr en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cepheuptychia glaucina a été décrit par Henry Walter Bates en 1865 sous le nom d' Euptychia glaucina.
 </t>
         </is>
       </c>
@@ -541,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cepheuptychia glaucina est un papillon qui présente un dimorphisme sexuel chez la femelle le dessus est beige nacré, chez le mâle le dessus de l'aile antérieure est beige nacré, celui de l'aile postérieure est bleu clair nacré. 
-Le revers est bleu finement rayé de cinq lignes marron. Il est orné d'un ocelle noir cerclé de jaune et pupillé à l'apex des ailes antérieures et aux ailes postérieures de deux à l'apex et de deux proches de l'angle anal.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cepheuptychia glaucina se nomme Dirty-blue Satyr en anglais.
 </t>
         </is>
       </c>
@@ -573,10 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cepheuptychia glaucina est un papillon qui présente un dimorphisme sexuel chez la femelle le dessus est beige nacré, chez le mâle le dessus de l'aile antérieure est beige nacré, celui de l'aile postérieure est bleu clair nacré. 
+Le revers est bleu finement rayé de cinq lignes marron. Il est orné d'un ocelle noir cerclé de jaune et pupillé à l'apex des ailes antérieures et aux ailes postérieures de deux à l'apex et de deux proches de l'angle anal.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,15 +624,79 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cepheuptychia_glaucina</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cepheuptychia_glaucina</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cepheuptychia glaucina est présent au Mexique, au Guatemala, en Bolivie[1].
-Biotope
-Protection
-Pas de statut de protection particulier
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cepheuptychia glaucina est présent au Mexique, au Guatemala, en Bolivie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cepheuptychia_glaucina</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cepheuptychia_glaucina</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 Sur les autres projets Wikimedia :
 Cepheuptychia glaucina, sur Wikimedia CommonsCepheuptychia glaucina, sur Wikispecies
 </t>
